--- a/data/TransmitLevelConfig.xlsx
+++ b/data/TransmitLevelConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\projectRes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15FC3FD-0396-4BE8-BC01-ABD8B15E1051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2AEDEA-64BE-4C5D-8CDD-AAD3B187C012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="4440" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13380" yWindow="3840" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t xml:space="preserve">string </t>
   </si>
@@ -37,127 +37,134 @@
     <t>level</t>
   </si>
   <si>
-    <t>leftNextType</t>
-  </si>
-  <si>
-    <t>rightNextType</t>
+    <t>{"challenge":10}</t>
+  </si>
+  <si>
+    <t>quest2</t>
+  </si>
+  <si>
+    <t>{"challenge":10,"event":1}</t>
+  </si>
+  <si>
+    <t>quest3</t>
+  </si>
+  <si>
+    <t>{"challenge":10,"event":1,"elite":5}</t>
+  </si>
+  <si>
+    <t>quest4</t>
+  </si>
+  <si>
+    <t>{"shop":10,"camp":10}</t>
+  </si>
+  <si>
+    <t>quest5</t>
+  </si>
+  <si>
+    <t>{"elite":10}</t>
+  </si>
+  <si>
+    <t>quest6</t>
+  </si>
+  <si>
+    <t>{"event":10}</t>
+  </si>
+  <si>
+    <t>quest7</t>
+  </si>
+  <si>
+    <t>{"challenge":10,"event":5}</t>
+  </si>
+  <si>
+    <t>quest8</t>
+  </si>
+  <si>
+    <t>quest9</t>
+  </si>
+  <si>
+    <t>quest10</t>
+  </si>
+  <si>
+    <t>{"boss":10}</t>
+  </si>
+  <si>
+    <t>quest11</t>
+  </si>
+  <si>
+    <t>quest12</t>
+  </si>
+  <si>
+    <t>quest13</t>
+  </si>
+  <si>
+    <t>quest14</t>
+  </si>
+  <si>
+    <t>quest15</t>
+  </si>
+  <si>
+    <t>quest16</t>
+  </si>
+  <si>
+    <t>quest17</t>
+  </si>
+  <si>
+    <t>quest18</t>
+  </si>
+  <si>
+    <t>quest19</t>
+  </si>
+  <si>
+    <t>quest20</t>
+  </si>
+  <si>
+    <t>quest21</t>
+  </si>
+  <si>
+    <t>quest22</t>
+  </si>
+  <si>
+    <t>quest23</t>
+  </si>
+  <si>
+    <t>quest24</t>
+  </si>
+  <si>
+    <t>quest25</t>
+  </si>
+  <si>
+    <t>quest26</t>
+  </si>
+  <si>
+    <t>quest27</t>
+  </si>
+  <si>
+    <t>quest28</t>
+  </si>
+  <si>
+    <t>quest29</t>
+  </si>
+  <si>
+    <t>quest30</t>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$end$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>quest1</t>
-  </si>
-  <si>
-    <t>{"challenge":10}</t>
-  </si>
-  <si>
-    <t>quest2</t>
-  </si>
-  <si>
-    <t>{"challenge":10,"event":1}</t>
-  </si>
-  <si>
-    <t>quest3</t>
-  </si>
-  <si>
-    <t>{"challenge":10,"event":1,"elite":5}</t>
-  </si>
-  <si>
-    <t>quest4</t>
-  </si>
-  <si>
-    <t>{"shop":10,"camp":10}</t>
-  </si>
-  <si>
-    <t>quest5</t>
-  </si>
-  <si>
-    <t>{"elite":10}</t>
-  </si>
-  <si>
-    <t>quest6</t>
-  </si>
-  <si>
-    <t>{"event":10}</t>
-  </si>
-  <si>
-    <t>quest7</t>
-  </si>
-  <si>
-    <t>{"challenge":10,"event":5}</t>
-  </si>
-  <si>
-    <t>quest8</t>
-  </si>
-  <si>
-    <t>quest9</t>
-  </si>
-  <si>
-    <t>quest10</t>
-  </si>
-  <si>
-    <t>{"boss":10}</t>
-  </si>
-  <si>
-    <t>quest11</t>
-  </si>
-  <si>
-    <t>quest12</t>
-  </si>
-  <si>
-    <t>quest13</t>
-  </si>
-  <si>
-    <t>quest14</t>
-  </si>
-  <si>
-    <t>quest15</t>
-  </si>
-  <si>
-    <t>quest16</t>
-  </si>
-  <si>
-    <t>quest17</t>
-  </si>
-  <si>
-    <t>quest18</t>
-  </si>
-  <si>
-    <t>quest19</t>
-  </si>
-  <si>
-    <t>quest20</t>
-  </si>
-  <si>
-    <t>quest21</t>
-  </si>
-  <si>
-    <t>quest22</t>
-  </si>
-  <si>
-    <t>quest23</t>
-  </si>
-  <si>
-    <t>quest24</t>
-  </si>
-  <si>
-    <t>quest25</t>
-  </si>
-  <si>
-    <t>quest26</t>
-  </si>
-  <si>
-    <t>quest27</t>
-  </si>
-  <si>
-    <t>quest28</t>
-  </si>
-  <si>
-    <t>quest29</t>
-  </si>
-  <si>
-    <t>quest30</t>
-  </si>
-  <si>
-    <t>注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftNextTypes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rightNextTypes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -487,9 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -501,7 +510,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -526,434 +535,440 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
+      <c r="A14" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
         <v>30</v>
       </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/TransmitLevelConfig.xlsx
+++ b/data/TransmitLevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2AEDEA-64BE-4C5D-8CDD-AAD3B187C012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518D596F-7FE8-4094-806C-6AC07F0357D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="3840" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8475" yWindow="3045" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t xml:space="preserve">string </t>
   </si>
@@ -165,6 +165,22 @@
   </si>
   <si>
     <t>rightNextTypes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"challenge":10}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>challengeTeamsId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>["enemy_team_001","enemy_team_002"]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,14 +522,15 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -526,8 +543,11 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -540,22 +560,28 @@
       <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -569,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -583,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -597,7 +623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -611,7 +637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -625,7 +651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -639,7 +665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -653,7 +679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -667,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -681,12 +707,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -700,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
